--- a/2024 书剧影音.xlsx
+++ b/2024 书剧影音.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\每日打卡\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D478144-88E4-4CE2-9969-BF78633ACE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9D730-1EAD-4F32-8E8B-488C06FD708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,15 +569,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休伊；星光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疯狂动物城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Judy~Nick~Try Everything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑袍纠察队 第二季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休伊；星光；火车头；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ED5C5A-A4F5-4C94-BD08-9D2BB4A13C07}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1425,7 +1429,15 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76AFDF5-267E-4E67-A899-AB769BAA3706}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1667,10 +1679,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>

--- a/2024 书剧影音.xlsx
+++ b/2024 书剧影音.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9D730-1EAD-4F32-8E8B-488C06FD708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3618C-7A15-4438-AE5F-237EBA3A8A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍" sheetId="1" r:id="rId1"/>
     <sheet name="番剧" sheetId="2" r:id="rId2"/>
     <sheet name="电影" sheetId="3" r:id="rId3"/>
     <sheet name="音乐" sheetId="4" r:id="rId4"/>
+    <sheet name="美食" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="146">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +583,26 @@
   </si>
   <si>
     <t>休伊；星光；火车头；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞幸轻轻乌龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +716,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1231,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ED5C5A-A4F5-4C94-BD08-9D2BB4A13C07}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1724,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1864,4 +1889,45 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908C4126-F7FB-4BCF-9811-6D56A34B0DFB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="15.640625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2024 书剧影音.xlsx
+++ b/2024 书剧影音.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3618C-7A15-4438-AE5F-237EBA3A8A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B8755-2312-4FF7-994D-85C9AD3B0776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休伊；星光；火车头；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +599,14 @@
   </si>
   <si>
     <t>瑞幸轻轻乌龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑袍纠察队 第三季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑袍纠察队 第四季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ED5C5A-A4F5-4C94-BD08-9D2BB4A13C07}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1453,16 +1457,38 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908C4126-F7FB-4BCF-9811-6D56A34B0DFB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1906,21 +1932,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>35</v>

--- a/2024 书剧影音.xlsx
+++ b/2024 书剧影音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B8755-2312-4FF7-994D-85C9AD3B0776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E145494-9172-462A-B5AC-67F920419D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,14 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小说漫画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动番剧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马戏之王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +599,30 @@
   </si>
   <si>
     <t>黑袍纠察队 第四季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花儿与少年 思路季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太喜欢这季的所有人了；回看的形式也很棒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,7 +1229,7 @@
     </row>
     <row r="20" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
@@ -1221,7 +1237,7 @@
     </row>
     <row r="21" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
@@ -1229,7 +1245,7 @@
     </row>
     <row r="22" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>22</v>
@@ -1237,16 +1253,16 @@
     </row>
     <row r="23" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1258,20 +1274,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ED5C5A-A4F5-4C94-BD08-9D2BB4A13C07}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="25.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.640625" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1284,8 +1300,11 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -1349,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1363,7 +1382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>75</v>
       </c>
@@ -1377,12 +1396,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1391,23 +1410,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -1416,12 +1435,12 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1430,65 +1449,82 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>2024.12</v>
       </c>
     </row>
   </sheetData>
@@ -1630,10 +1666,10 @@
     </row>
     <row r="12" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
@@ -1641,13 +1677,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1666,24 +1702,24 @@
     </row>
     <row r="15" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -1691,10 +1727,10 @@
     </row>
     <row r="17" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
@@ -1702,13 +1738,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1716,13 +1752,13 @@
     </row>
     <row r="19" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>22</v>
@@ -1730,10 +1766,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -1817,7 +1853,7 @@
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
@@ -1825,7 +1861,7 @@
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1833,7 +1869,7 @@
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
@@ -1841,7 +1877,7 @@
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
@@ -1849,7 +1885,7 @@
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1857,7 +1893,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1865,7 +1901,7 @@
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1873,7 +1909,7 @@
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
@@ -1881,7 +1917,7 @@
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -1889,7 +1925,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -1897,7 +1933,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -1905,7 +1941,7 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1932,21 +1968,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>35</v>

--- a/2024 书剧影音.xlsx
+++ b/2024 书剧影音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E145494-9172-462A-B5AC-67F920419D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A47B14-68F2-427F-ADD2-25736AAF0CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,14 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东野圭吾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1265,6 +1273,17 @@
         <v>133</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="16.3" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ED5C5A-A4F5-4C94-BD08-9D2BB4A13C07}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
